--- a/public/template/importTemplate.xlsx
+++ b/public/template/importTemplate.xlsx
@@ -1,5 +1,1110 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="16920" windowHeight="10905"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="说明" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_65508066611E4E7AAE922A38233C0BEB" descr="1（1）"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_58A17D82D96B452B848C984E78AED18A" descr="1（2）"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8889365" cy="8534400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="ID_BD2EB5CD4C454A05852A4442A8581460" descr="1（3）"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4953000" cy="4965700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_6C4BA3F0323F45C7B9C679E7479CE105" descr="1（4）"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_1F6C8FF7934242518337677E270670A4" descr="2（1）"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8889365" cy="8889365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="ID_9BEFC58C0B54483091369FB9281BA597" descr="2（2）"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3238500" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_B09503F40FFC4ADCB5B85D6F54CAF5F6" descr="2（3）"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5705475" cy="5257800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_82A20384864448349F598286F7AC2E0D" descr="2（4）"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+  <si>
+    <t>nameen</t>
+  </si>
+  <si>
+    <t>namezh</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>avatar1</t>
+  </si>
+  <si>
+    <t>夜影狂刀</t>
+  </si>
+  <si>
+    <t>新年快乐</t>
+  </si>
+  <si>
+    <t>avatar2</t>
+  </si>
+  <si>
+    <t>洛璃</t>
+  </si>
+  <si>
+    <t>avatar3</t>
+  </si>
+  <si>
+    <t>奶茶战神</t>
+  </si>
+  <si>
+    <t>avatar4</t>
+  </si>
+  <si>
+    <t>暗夜星尘</t>
+  </si>
+  <si>
+    <t>avatar5</t>
+  </si>
+  <si>
+    <t>橘子汽水</t>
+  </si>
+  <si>
+    <t>avatar6</t>
+  </si>
+  <si>
+    <t>白月初</t>
+  </si>
+  <si>
+    <t>avatar7</t>
+  </si>
+  <si>
+    <t>幽冥剑客</t>
+  </si>
+  <si>
+    <t>avatar8</t>
+  </si>
+  <si>
+    <t>花间一壶酒</t>
+  </si>
+  <si>
+    <t>avatar9</t>
+  </si>
+  <si>
+    <t>素衣染墨</t>
+  </si>
+  <si>
+    <t>avatar10</t>
+  </si>
+  <si>
+    <t>白狐仙尊</t>
+  </si>
+  <si>
+    <t>avatar11</t>
+  </si>
+  <si>
+    <t>猫耳朵饼干</t>
+  </si>
+  <si>
+    <t>avatar12</t>
+  </si>
+  <si>
+    <t>霜火流光</t>
+  </si>
+  <si>
+    <t>avatar13</t>
+  </si>
+  <si>
+    <t>风中追梦</t>
+  </si>
+  <si>
+    <t>avatar14</t>
+  </si>
+  <si>
+    <t>剑来无声</t>
+  </si>
+  <si>
+    <t>avatar15</t>
+  </si>
+  <si>
+    <t>蓝莓不打烊</t>
+  </si>
+  <si>
+    <t>avatar16</t>
+  </si>
+  <si>
+    <t>晨曦微光</t>
+  </si>
+  <si>
+    <t>avatar17</t>
+  </si>
+  <si>
+    <t>九尾小妖</t>
+  </si>
+  <si>
+    <t>avatar18</t>
+  </si>
+  <si>
+    <t>归途是星辰</t>
+  </si>
+  <si>
+    <t>avatar19</t>
+  </si>
+  <si>
+    <t>雨落心尘</t>
+  </si>
+  <si>
+    <t>avatar20</t>
+  </si>
+  <si>
+    <t>鱼丸粗面</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一行为表头，不要进行更改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+      1、nameen 为头像命名，命名方式：avatar + 数字。注意不要带中文或者符号
+      2、namezh 为中奖名称
+      3、images 头像图片，插入图片要选择 “嵌入单元格”
+      4、头像图片尽量不要太大，可以的话压缩一下是最好的
+</t>
+    </r>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.3"/>
+      <name val="Consolas"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9.3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
@@ -246,6 +1351,388 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="12.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="75" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="4" ht="75" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="5" ht="75" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="75" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="69.1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="8" ht="75" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="72" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="11" ht="72" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="12" ht="72" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="13" ht="72" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="72" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D21" si="0">_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="72" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="72" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="17" ht="72" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="18" ht="72" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="19" ht="72" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="20" ht="72" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="21" ht="75" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="str">
+        <f>_xlfn.DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</f>
+        <v>=DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="120" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/public/template/importTemplate.xlsx
+++ b/public/template/importTemplate.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16920" windowHeight="10905"/>
+    <workbookView windowWidth="25080" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -218,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>nameen</t>
   </si>
@@ -232,135 +231,907 @@
     <t>image</t>
   </si>
   <si>
-    <t>avatar1</t>
+    <t>winner1</t>
   </si>
   <si>
     <t>夜影狂刀</t>
   </si>
   <si>
-    <t>新年快乐</t>
-  </si>
-  <si>
-    <t>avatar2</t>
+    <t>新春大吉，万事顺意！</t>
+  </si>
+  <si>
+    <t>winner2</t>
   </si>
   <si>
     <t>洛璃</t>
   </si>
   <si>
-    <t>avatar3</t>
+    <t>福星高照，财源滚滚！</t>
+  </si>
+  <si>
+    <t>winner3</t>
   </si>
   <si>
     <t>奶茶战神</t>
   </si>
   <si>
-    <t>avatar4</t>
+    <t>龙年吉祥，阖家安康！</t>
+  </si>
+  <si>
+    <t>winner4</t>
   </si>
   <si>
     <t>暗夜星尘</t>
   </si>
   <si>
-    <t>avatar5</t>
+    <t>岁岁平安，年年有余！</t>
+  </si>
+  <si>
+    <t>winner5</t>
   </si>
   <si>
     <t>橘子汽水</t>
   </si>
   <si>
-    <t>avatar6</t>
+    <t>五福临门，六六大顺！</t>
+  </si>
+  <si>
+    <t>winner6</t>
   </si>
   <si>
     <t>白月初</t>
   </si>
   <si>
-    <t>avatar7</t>
-  </si>
-  <si>
-    <t>幽冥剑客</t>
-  </si>
-  <si>
-    <t>avatar8</t>
+    <t>金玉满堂，步步高升！</t>
+  </si>
+  <si>
+    <t>winner7</t>
+  </si>
+  <si>
+    <t>Clara Bennett</t>
+  </si>
+  <si>
+    <t>心想事成，好运连连！</t>
+  </si>
+  <si>
+    <t>winner8</t>
   </si>
   <si>
     <t>花间一壶酒</t>
   </si>
   <si>
-    <t>avatar9</t>
+    <t>吉星高照，福满人间！</t>
+  </si>
+  <si>
+    <t>winner9</t>
   </si>
   <si>
     <t>素衣染墨</t>
   </si>
   <si>
-    <t>avatar10</t>
+    <t>春风送暖，福气盈门！</t>
+  </si>
+  <si>
+    <t>winner10</t>
   </si>
   <si>
     <t>白狐仙尊</t>
   </si>
   <si>
-    <t>avatar11</t>
+    <t>瑞雪兆丰年，家和万事兴！</t>
+  </si>
+  <si>
+    <t>winner11</t>
   </si>
   <si>
     <t>猫耳朵饼干</t>
   </si>
   <si>
-    <t>avatar12</t>
+    <t>一帆风顺，二龙腾飞，三阳开泰！</t>
+  </si>
+  <si>
+    <t>winner12</t>
   </si>
   <si>
     <t>霜火流光</t>
   </si>
   <si>
-    <t>avatar13</t>
-  </si>
-  <si>
-    <t>风中追梦</t>
-  </si>
-  <si>
-    <t>avatar14</t>
+    <t>四季平安，五福临门，六合同春！</t>
+  </si>
+  <si>
+    <t>winner13</t>
+  </si>
+  <si>
+    <t>Ethan Hayes</t>
+  </si>
+  <si>
+    <t>七星高照，八方来财，九九同心！</t>
+  </si>
+  <si>
+    <t>winner14</t>
   </si>
   <si>
     <t>剑来无声</t>
   </si>
   <si>
-    <t>avatar15</t>
+    <t>十全十美，百事亨通，千事吉祥！</t>
+  </si>
+  <si>
+    <t>winner15</t>
   </si>
   <si>
     <t>蓝莓不打烊</t>
   </si>
   <si>
-    <t>avatar16</t>
-  </si>
-  <si>
-    <t>晨曦微光</t>
-  </si>
-  <si>
-    <t>avatar17</t>
+    <t>门迎百福，户纳千祥！</t>
+  </si>
+  <si>
+    <t>winner16</t>
+  </si>
+  <si>
+    <t>Liam Carter</t>
+  </si>
+  <si>
+    <t>天增岁月人增寿，春满乾坤福满门！</t>
+  </si>
+  <si>
+    <t>winner17</t>
   </si>
   <si>
     <t>九尾小妖</t>
   </si>
   <si>
-    <t>avatar18</t>
+    <t>爆竹声中一岁除，春风送暖入屠苏！</t>
+  </si>
+  <si>
+    <t>winner18</t>
   </si>
   <si>
     <t>归途是星辰</t>
   </si>
   <si>
-    <t>avatar19</t>
+    <t>张灯结彩迎新春，欢天喜地庆团圆！</t>
+  </si>
+  <si>
+    <t>winner19</t>
   </si>
   <si>
     <t>雨落心尘</t>
   </si>
   <si>
-    <t>avatar20</t>
+    <t>辞旧迎新鸿运到，福禄寿喜齐报到！</t>
+  </si>
+  <si>
+    <t>winner20</t>
   </si>
   <si>
     <t>鱼丸粗面</t>
   </si>
   <si>
+    <t>龙腾虎跃贺新岁，凤舞鸾鸣庆丰年！</t>
+  </si>
+  <si>
+    <t>winner21</t>
+  </si>
+  <si>
+    <t>风止于秋水</t>
+  </si>
+  <si>
+    <t>新年快乐，恭喜发财，红包拿来！</t>
+  </si>
+  <si>
+    <t>winner22</t>
+  </si>
+  <si>
+    <t>Kai Everly</t>
+  </si>
+  <si>
+    <t>祝你今年：工资像房价，越长越高！</t>
+  </si>
+  <si>
+    <t>winner23</t>
+  </si>
+  <si>
+    <t>雾漫过山丘</t>
+  </si>
+  <si>
+    <t>烦恼清零，体重也清零！</t>
+  </si>
+  <si>
+    <t>winner24</t>
+  </si>
+  <si>
+    <t>萤火眠深海</t>
+  </si>
+  <si>
+    <t>多吃不胖，熬夜不秃，钱包鼓鼓！</t>
+  </si>
+  <si>
+    <t>winner25</t>
+  </si>
+  <si>
+    <t>孤岛遇鲸落</t>
+  </si>
+  <si>
+    <t>新年目标：卡里有钱，车里有油，手机有电！</t>
+  </si>
+  <si>
+    <t>winner26</t>
+  </si>
+  <si>
+    <t>Maeve Rosalie</t>
+  </si>
+  <si>
+    <t>愿你的年终奖像年龄，只增不减！</t>
+  </si>
+  <si>
+    <t>winner27</t>
+  </si>
+  <si>
+    <t>纸船载月光</t>
+  </si>
+  <si>
+    <t>今年我要：躺赢人生，佛系赚钱！</t>
+  </si>
+  <si>
+    <t>winner28</t>
+  </si>
+  <si>
+    <t>雪落旧时钟</t>
+  </si>
+  <si>
+    <t>祝你脱单不脱发，暴富不暴痘！</t>
+  </si>
+  <si>
+    <t>winner29</t>
+  </si>
+  <si>
+    <t>云偷喝了酒</t>
+  </si>
+  <si>
+    <t>新年愿望：少加班，多放假，老板说啥都对！</t>
+  </si>
+  <si>
+    <t>winner30</t>
+  </si>
+  <si>
+    <t>候鸟的北方</t>
+  </si>
+  <si>
+    <t>虎年摸虎头，万事不用愁；虎年摸虎尾，顺风又顺水！</t>
+  </si>
+  <si>
+    <t>winner31</t>
+  </si>
+  <si>
+    <t>苔痕爬上窗</t>
+  </si>
+  <si>
+    <t>过年三件套：红包、美食、睡懒觉！</t>
+  </si>
+  <si>
+    <t>winner32</t>
+  </si>
+  <si>
+    <t>流星批发商</t>
+  </si>
+  <si>
+    <t>愿你的假期比老板的脾气长！</t>
+  </si>
+  <si>
+    <t>winner33</t>
+  </si>
+  <si>
+    <t>月亮失约了</t>
+  </si>
+  <si>
+    <t>新年不“南”（难），快乐翻番！</t>
+  </si>
+  <si>
+    <t>winner34</t>
+  </si>
+  <si>
+    <t>树洞藏风声</t>
+  </si>
+  <si>
+    <t>2024关键词：有钱、有闲、有对象！</t>
+  </si>
+  <si>
+    <t>winner35</t>
+  </si>
+  <si>
+    <t>潮汐与灯塔</t>
+  </si>
+  <si>
+    <t>祝你：麻将自摸，奶茶免费，外卖秒到！</t>
+  </si>
+  <si>
+    <t>winner36</t>
+  </si>
+  <si>
+    <t>诗集第三页</t>
+  </si>
+  <si>
+    <t>新年新气象，体重别上涨！</t>
+  </si>
+  <si>
+    <t>winner37</t>
+  </si>
+  <si>
+    <t>荒野拾星星</t>
+  </si>
+  <si>
+    <t>愿你的健康码永远绿，股票永远红！</t>
+  </si>
+  <si>
+    <t>winner38</t>
+  </si>
+  <si>
+    <t>蝉鸣的夏天</t>
+  </si>
+  <si>
+    <t>虎年不马虎，天天有进步！</t>
+  </si>
+  <si>
+    <t>winner39</t>
+  </si>
+  <si>
+    <t>橘子味日落</t>
+  </si>
+  <si>
+    <t>新年flag：脱贫脱单不脱发！</t>
+  </si>
+  <si>
+    <t>winner40</t>
+  </si>
+  <si>
+    <t>沉默的岛屿</t>
+  </si>
+  <si>
+    <t>压岁钱存着，等老了买糖吃！</t>
+  </si>
+  <si>
+    <t>winner41</t>
+  </si>
+  <si>
+    <t>风筝逆着风</t>
+  </si>
+  <si>
+    <t>愿新年，胜旧年，常安宁，多喜乐。</t>
+  </si>
+  <si>
+    <t>winner42</t>
+  </si>
+  <si>
+    <t>夜航船未归</t>
+  </si>
+  <si>
+    <t>万物更新，旧疾当愈，长安常安。</t>
+  </si>
+  <si>
+    <t>winner43</t>
+  </si>
+  <si>
+    <t>碎玻璃银河</t>
+  </si>
+  <si>
+    <t>一岁一礼，一寸欢喜。</t>
+  </si>
+  <si>
+    <t>winner44</t>
+  </si>
+  <si>
+    <t>写信给云朵</t>
+  </si>
+  <si>
+    <t>年年有风，风吹年年，慢慢即漫漫。</t>
+  </si>
+  <si>
+    <t>winner45</t>
+  </si>
+  <si>
+    <t>时钟在发芽</t>
+  </si>
+  <si>
+    <t>烟火向星辰，所愿皆成真。</t>
+  </si>
+  <si>
+    <t>winner46</t>
+  </si>
+  <si>
+    <t>汽水与黄昏</t>
+  </si>
+  <si>
+    <t>春祺夏安，秋绥冬禧。</t>
+  </si>
+  <si>
+    <t>winner47</t>
+  </si>
+  <si>
+    <t>雾凇的清晨</t>
+  </si>
+  <si>
+    <t>日子如熹光，温柔又安详。</t>
+  </si>
+  <si>
+    <t>winner48</t>
+  </si>
+  <si>
+    <t>青苔与台阶</t>
+  </si>
+  <si>
+    <t>愿岁并谢，与友长兮。</t>
+  </si>
+  <si>
+    <t>winner49</t>
+  </si>
+  <si>
+    <t>候鸟的轨迹</t>
+  </si>
+  <si>
+    <t>山河无恙，人间皆安。</t>
+  </si>
+  <si>
+    <t>winner50</t>
+  </si>
+  <si>
+    <t>星星的碎片</t>
+  </si>
+  <si>
+    <t>辞暮尔尔，烟火年年。</t>
+  </si>
+  <si>
+    <t>winner51</t>
+  </si>
+  <si>
+    <t>月光晒干路</t>
+  </si>
+  <si>
+    <t>岁月常新，美好长随。</t>
+  </si>
+  <si>
+    <t>winner52</t>
+  </si>
+  <si>
+    <t>落叶的独白</t>
+  </si>
+  <si>
+    <t>心之所向，行之所往。</t>
+  </si>
+  <si>
+    <t>winner53</t>
+  </si>
+  <si>
+    <t>山谷的回响</t>
+  </si>
+  <si>
+    <t>愿不慌不忙，是心之所向。</t>
+  </si>
+  <si>
+    <t>winner54</t>
+  </si>
+  <si>
+    <t>蒲公英之海</t>
+  </si>
+  <si>
+    <t>生活温暖顺心，其他别无所求。</t>
+  </si>
+  <si>
+    <t>winner55</t>
+  </si>
+  <si>
+    <t>咖啡渍地图</t>
+  </si>
+  <si>
+    <t>前方柔光万丈，身后温暖一方。</t>
+  </si>
+  <si>
+    <t>winner56</t>
+  </si>
+  <si>
+    <t>雪人爱夏天</t>
+  </si>
+  <si>
+    <t>长路浩浩荡荡，万事尽可期待。</t>
+  </si>
+  <si>
+    <t>winner57</t>
+  </si>
+  <si>
+    <t>废弃游乐场</t>
+  </si>
+  <si>
+    <t>愿新年，有趣有盼，无灾无难。</t>
+  </si>
+  <si>
+    <t>winner58</t>
+  </si>
+  <si>
+    <t>铅笔屑星空</t>
+  </si>
+  <si>
+    <t>三餐四季，温柔有趣。</t>
+  </si>
+  <si>
+    <t>winner59</t>
+  </si>
+  <si>
+    <t>失眠的枕头</t>
+  </si>
+  <si>
+    <t>顺遂无虞，皆得所愿。</t>
+  </si>
+  <si>
+    <t>winner60</t>
+  </si>
+  <si>
+    <t>鲸鱼游过窗</t>
+  </si>
+  <si>
+    <t>日子常新，未来不远。</t>
+  </si>
+  <si>
+    <t>winner61</t>
+  </si>
+  <si>
+    <t>番茄炒月亮</t>
+  </si>
+  <si>
+    <t>财源广进，日进斗金！</t>
+  </si>
+  <si>
+    <t>winner62</t>
+  </si>
+  <si>
+    <t>奶茶不加冰</t>
+  </si>
+  <si>
+    <t>生意兴隆通四海，财源茂盛达三江！</t>
+  </si>
+  <si>
+    <t>winner63</t>
+  </si>
+  <si>
+    <t>火锅煮诗词</t>
+  </si>
+  <si>
+    <t>升职加薪，数钱数到手抽筋！</t>
+  </si>
+  <si>
+    <t>winner64</t>
+  </si>
+  <si>
+    <t>薯片配晚霞</t>
+  </si>
+  <si>
+    <t>事业如龙腾飞，财运似水长流！</t>
+  </si>
+  <si>
+    <t>winner65</t>
+  </si>
+  <si>
+    <t>冰箱有黑洞</t>
+  </si>
+  <si>
+    <t>客户源源不断，订单滚滚而来！</t>
+  </si>
+  <si>
+    <t>winner66</t>
+  </si>
+  <si>
+    <t>泡面在修仙</t>
+  </si>
+  <si>
+    <t>投资稳赚，副业开花！</t>
+  </si>
+  <si>
+    <t>winner67</t>
+  </si>
+  <si>
+    <t>西瓜最中间</t>
+  </si>
+  <si>
+    <t>老板器重，同事友爱，升职在望！</t>
+  </si>
+  <si>
+    <t>winner68</t>
+  </si>
+  <si>
+    <t>可乐冒星星</t>
+  </si>
+  <si>
+    <t>创业成功，上市敲钟！</t>
+  </si>
+  <si>
+    <t>winner69</t>
+  </si>
+  <si>
+    <t>芝士焗乌云</t>
+  </si>
+  <si>
+    <t>贵人相助，小人退散！</t>
+  </si>
+  <si>
+    <t>winner70</t>
+  </si>
+  <si>
+    <t>烤焦的面包</t>
+  </si>
+  <si>
+    <t>绩效全A，奖金翻倍！</t>
+  </si>
+  <si>
+    <t>winner71</t>
+  </si>
+  <si>
+    <t>酸奶盖哲学</t>
+  </si>
+  <si>
+    <t>虎年行大运，业绩蹭蹭涨！</t>
+  </si>
+  <si>
+    <t>winner72</t>
+  </si>
+  <si>
+    <t>筷子夹流星</t>
+  </si>
+  <si>
+    <t>订单接到手软，加班永不加班！</t>
+  </si>
+  <si>
+    <t>winner73</t>
+  </si>
+  <si>
+    <t>外卖送银河</t>
+  </si>
+  <si>
+    <t>副业收入超过主业！</t>
+  </si>
+  <si>
+    <t>winner74</t>
+  </si>
+  <si>
+    <t>土豆成精了</t>
+  </si>
+  <si>
+    <t>股票涨停，基金暴涨！</t>
+  </si>
+  <si>
+    <t>winner75</t>
+  </si>
+  <si>
+    <t>酱油拌月光</t>
+  </si>
+  <si>
+    <t>出门捡钱，在家收租！</t>
+  </si>
+  <si>
+    <t>winner76</t>
+  </si>
+  <si>
+    <t>微波炉宇宙</t>
+  </si>
+  <si>
+    <t>合作共赢，财源亨通！</t>
+  </si>
+  <si>
+    <t>winner77</t>
+  </si>
+  <si>
+    <t>咖啡泡枸杞</t>
+  </si>
+  <si>
+    <t>商路畅通，名利双收！</t>
+  </si>
+  <si>
+    <t>winner78</t>
+  </si>
+  <si>
+    <t>菠萝油王子</t>
+  </si>
+  <si>
+    <t>金玉满堂，富贵吉祥！</t>
+  </si>
+  <si>
+    <t>winner79</t>
+  </si>
+  <si>
+    <t>煎蛋的梦想</t>
+  </si>
+  <si>
+    <t>八方来财，盆满钵满！</t>
+  </si>
+  <si>
+    <t>winner80</t>
+  </si>
+  <si>
+    <t>砂糖橘起义</t>
+  </si>
+  <si>
+    <t>赚钱如虎添翼，存钱如龙得水！</t>
+  </si>
+  <si>
+    <t>winner81</t>
+  </si>
+  <si>
+    <t>冰箱贴旅行</t>
+  </si>
+  <si>
+    <t>身体健康，吃嘛嘛香！</t>
+  </si>
+  <si>
+    <t>winner82</t>
+  </si>
+  <si>
+    <t>泡芙的忧伤</t>
+  </si>
+  <si>
+    <t>龙马精神，百病不侵！</t>
+  </si>
+  <si>
+    <t>winner83</t>
+  </si>
+  <si>
+    <t>薯条蘸星空</t>
+  </si>
+  <si>
+    <t>平安顺遂，无灾无难！</t>
+  </si>
+  <si>
+    <t>winner84</t>
+  </si>
+  <si>
+    <t>糯米团造反</t>
+  </si>
+  <si>
+    <t>睡眠充足，体检全绿！</t>
+  </si>
+  <si>
+    <t>winner85</t>
+  </si>
+  <si>
+    <t>螺蛳粉诗人</t>
+  </si>
+  <si>
+    <t>腿脚灵活，腰不酸背不痛！</t>
+  </si>
+  <si>
+    <t>winner86</t>
+  </si>
+  <si>
+    <t>布丁撞地球</t>
+  </si>
+  <si>
+    <t>血压稳定，血糖正常！</t>
+  </si>
+  <si>
+    <t>winner87</t>
+  </si>
+  <si>
+    <t>巧克力山丘</t>
+  </si>
+  <si>
+    <t>免疫力爆表，病毒退散！</t>
+  </si>
+  <si>
+    <t>winner88</t>
+  </si>
+  <si>
+    <t>蛋挞与黄昏</t>
+  </si>
+  <si>
+    <t>笑口常开，烦恼走开！</t>
+  </si>
+  <si>
+    <t>winner89</t>
+  </si>
+  <si>
+    <t>奶茶续命学</t>
+  </si>
+  <si>
+    <t>身心愉悦，活力满满！</t>
+  </si>
+  <si>
+    <t>winner90</t>
+  </si>
+  <si>
+    <t>饼干碎成沙</t>
+  </si>
+  <si>
+    <t>远离医馆，亲近山水！</t>
+  </si>
+  <si>
+    <t>winner91</t>
+  </si>
+  <si>
+    <t>爆米花爆炸</t>
+  </si>
+  <si>
+    <t>药箱积灰，健康常驻！</t>
+  </si>
+  <si>
+    <t>winner92</t>
+  </si>
+  <si>
+    <t>草莓的纹身</t>
+  </si>
+  <si>
+    <t>跑步不喘，爬山不累！</t>
+  </si>
+  <si>
+    <t>winner93</t>
+  </si>
+  <si>
+    <t>洋葱流泪了</t>
+  </si>
+  <si>
+    <t>体检报告全是“未见异常”！</t>
+  </si>
+  <si>
+    <t>winner94</t>
+  </si>
+  <si>
+    <t>南瓜马车坏</t>
+  </si>
+  <si>
+    <t>熬夜不垮，加班不累！</t>
+  </si>
+  <si>
+    <t>winner95</t>
+  </si>
+  <si>
+    <t>冰淇淋火山</t>
+  </si>
+  <si>
+    <t>吃得健康，活得漂亮！</t>
+  </si>
+  <si>
+    <t>winner96</t>
+  </si>
+  <si>
+    <t>棉花糖云朵</t>
+  </si>
+  <si>
+    <t>逆龄生长，永远十八！</t>
+  </si>
+  <si>
+    <t>winner97</t>
+  </si>
+  <si>
+    <t>烤肠流浪记</t>
+  </si>
+  <si>
+    <t>家庭医生：长期闲置！</t>
+  </si>
+  <si>
+    <t>winner98</t>
+  </si>
+  <si>
+    <t>芝士拉不断</t>
+  </si>
+  <si>
+    <t>感冒发烧，通通绕道！</t>
+  </si>
+  <si>
+    <t>winner99</t>
+  </si>
+  <si>
+    <t>薄荷呛到风</t>
+  </si>
+  <si>
+    <t>健康长寿，福寿双全！</t>
+  </si>
+  <si>
+    <t>winner100</t>
+  </si>
+  <si>
+    <t>红豆炖年华</t>
+  </si>
+  <si>
+    <t>愿你所求皆如愿，所行化坦途！</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -379,9 +1150,9 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-      1、nameen 为头像命名，命名方式：avatar + 数字。注意不要带中文或者符号
-      2、namezh 为中奖名称
-      3、images 头像图片，插入图片要选择 “嵌入单元格”
+      1、nameen 为中奖者id，命名方式：winner + 数字。注意不要带中文或者符号
+      2、namezh 为中奖者名称
+      3、image 头像图片，插入图片要选择 “嵌入单元格”
       4、头像图片尽量不要太大，可以的话压缩一下是最好的
 </t>
     </r>
@@ -404,14 +1175,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.3"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Consolas"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="9.3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1022,7 +1793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,10 +1804,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1354,329 +2131,1505 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="12.5"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="31" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="58" customHeight="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="72.05" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
     <row r="4" ht="75" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="str">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
     <row r="5" ht="75" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
+      <c r="A5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="str">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
     <row r="6" ht="75" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
+      <c r="A6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="str">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="7" ht="69.1" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
+    <row r="7" ht="69.25" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="str">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
     <row r="8" ht="75" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
+      <c r="A8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="str">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
+      <c r="A9" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="72" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="72.05" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="str">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="11" ht="72" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
+    <row r="11" ht="72.05" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="str">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="12" ht="72" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
+    <row r="12" ht="72.05" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="str">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="13" ht="72" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="str">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="72.05" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f t="shared" ref="D14:D21" si="0">_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="72.05" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="72.05" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="72.05" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="21" ht="75.15" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</f>
+        <v>=DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</v>
+      </c>
+    </row>
+    <row r="22" ht="75" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="23" ht="72.05" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="14" ht="72" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ref="D14:D21" si="0">_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+    <row r="24" ht="75" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="25" ht="75" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="26" ht="75" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="27" ht="69.25" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="28" ht="75" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="29" ht="75" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="30" ht="72.05" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="15" ht="72" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
+    <row r="31" ht="75" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="32" ht="75" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="33" ht="75" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="34" ht="69.25" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="35" ht="75" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="36" ht="75" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="37" ht="72.05" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="16" ht="72" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
+    <row r="38" ht="75" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="39" ht="75" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="40" ht="75" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="41" ht="69.25" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="42" ht="75" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="43" ht="75" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="44" ht="72.05" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="17" ht="72" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
+    <row r="45" ht="75" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="46" ht="75" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="47" ht="75" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="48" ht="69.25" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="49" ht="75" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="50" ht="75" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="51" ht="72.05" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="18" ht="72" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
+    <row r="52" ht="75" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="53" ht="75" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="54" ht="75" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="55" ht="69.25" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="56" ht="75" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="57" ht="75" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="58" ht="72.05" spans="1:4">
+      <c r="A58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="19" ht="72" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
+    <row r="59" ht="75" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="60" ht="75" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="61" ht="75" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="62" ht="69.25" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="63" ht="75" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="64" ht="75" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="65" ht="72.05" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="20" ht="72" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
+    <row r="66" ht="75" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="67" ht="75" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="68" ht="75" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="69" ht="69.25" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="70" ht="75" spans="1:4">
+      <c r="A70" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" ht="75" spans="1:4">
+      <c r="A72" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="73" ht="72.05" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="21" ht="75" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="str">
-        <f>_xlfn.DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</f>
-        <v>=DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+    <row r="74" ht="75" spans="1:4">
+      <c r="A74" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="75" ht="75" spans="1:4">
+      <c r="A75" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="76" ht="75" spans="1:4">
+      <c r="A76" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="77" ht="69.25" spans="1:4">
+      <c r="A77" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="78" ht="75" spans="1:4">
+      <c r="A78" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" ht="75" spans="1:4">
+      <c r="A80" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="81" ht="72.05" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="82" ht="75" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="83" ht="75" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="84" ht="75" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="85" ht="69.25" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="86" ht="75" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" ht="75" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="89" ht="72.05" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="90" ht="75" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="91" ht="75" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="92" ht="75" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="93" ht="69.25" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="94" ht="75" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
+    </row>
+    <row r="95" ht="75" spans="1:4">
+      <c r="A95" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
+        <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
+      </c>
+    </row>
+    <row r="96" ht="72.05" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
+      </c>
+    </row>
+    <row r="97" ht="75" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
+        <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
+      </c>
+    </row>
+    <row r="98" ht="75" spans="1:4">
+      <c r="A98" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
+        <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
+      </c>
+    </row>
+    <row r="99" ht="75" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
+        <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
+      </c>
+    </row>
+    <row r="100" ht="69.25" spans="1:4">
+      <c r="A100" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
+        <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
+      </c>
+    </row>
+    <row r="101" ht="75" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
+        <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1691,14 +3644,14 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="120" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1718,21 +3671,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/public/template/importTemplate.xlsx
+++ b/public/template/importTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="11925"/>
+    <workbookView windowWidth="16920" windowHeight="10905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1793,7 +1793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1811,9 +1811,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2133,8 +2130,8 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -2170,7 +2167,7 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
@@ -2185,7 +2182,7 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
@@ -2200,7 +2197,7 @@
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
@@ -2215,7 +2212,7 @@
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
@@ -2230,7 +2227,7 @@
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
@@ -2245,7 +2242,7 @@
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
@@ -2260,7 +2257,7 @@
       <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
@@ -2286,7 +2283,7 @@
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
@@ -2301,7 +2298,7 @@
       <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="str">
+      <c r="D11" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
@@ -2316,7 +2313,7 @@
       <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
@@ -2342,7 +2339,7 @@
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="3" t="str">
         <f t="shared" ref="D14:D21" si="0">_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
@@ -2368,7 +2365,7 @@
       <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
@@ -2394,7 +2391,7 @@
       <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6" t="str">
+      <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
@@ -2420,7 +2417,7 @@
       <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
@@ -2435,7 +2432,7 @@
       <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="6" t="str">
+      <c r="D21" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</f>
         <v>=DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</v>
       </c>
@@ -3643,8 +3640,8 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/public/template/importTemplate.xlsx
+++ b/public/template/importTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16920" windowHeight="10905" activeTab="1"/>
+    <workbookView windowWidth="16920" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="321">
   <si>
     <t>nameen</t>
   </si>
@@ -228,6 +228,9 @@
     <t>wish</t>
   </si>
   <si>
+    <t>department</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
@@ -240,6 +243,9 @@
     <t>新春大吉，万事顺意！</t>
   </si>
   <si>
+    <t>运营二部#3组</t>
+  </si>
+  <si>
     <t>winner2</t>
   </si>
   <si>
@@ -276,6 +282,9 @@
     <t>五福临门，六六大顺！</t>
   </si>
   <si>
+    <t>运营二部#1组</t>
+  </si>
+  <si>
     <t>winner6</t>
   </si>
   <si>
@@ -303,6 +312,9 @@
     <t>吉星高照，福满人间！</t>
   </si>
   <si>
+    <t>运营一部#1组</t>
+  </si>
+  <si>
     <t>winner9</t>
   </si>
   <si>
@@ -339,6 +351,9 @@
     <t>四季平安，五福临门，六合同春！</t>
   </si>
   <si>
+    <t>研发部#前端组</t>
+  </si>
+  <si>
     <t>winner13</t>
   </si>
   <si>
@@ -366,6 +381,9 @@
     <t>门迎百福，户纳千祥！</t>
   </si>
   <si>
+    <t>研发部#后端组</t>
+  </si>
+  <si>
     <t>winner16</t>
   </si>
   <si>
@@ -393,6 +411,9 @@
     <t>张灯结彩迎新春，欢天喜地庆团圆！</t>
   </si>
   <si>
+    <t>行政中心#行政一组</t>
+  </si>
+  <si>
     <t>winner19</t>
   </si>
   <si>
@@ -411,6 +432,9 @@
     <t>龙腾虎跃贺新岁，凤舞鸾鸣庆丰年！</t>
   </si>
   <si>
+    <t>行政中心#行政二组</t>
+  </si>
+  <si>
     <t>winner21</t>
   </si>
   <si>
@@ -429,6 +453,9 @@
     <t>祝你今年：工资像房价，越长越高！</t>
   </si>
   <si>
+    <t>运营二部#2组</t>
+  </si>
+  <si>
     <t>winner23</t>
   </si>
   <si>
@@ -465,6 +492,9 @@
     <t>愿你的年终奖像年龄，只增不减！</t>
   </si>
   <si>
+    <t>运营一部#2组</t>
+  </si>
+  <si>
     <t>winner27</t>
   </si>
   <si>
@@ -762,6 +792,9 @@
     <t>顺遂无虞，皆得所愿。</t>
   </si>
   <si>
+    <t>研发部#测试组</t>
+  </si>
+  <si>
     <t>winner60</t>
   </si>
   <si>
@@ -834,6 +867,9 @@
     <t>老板器重，同事友爱，升职在望！</t>
   </si>
   <si>
+    <t>物流仓储部#运输管理组</t>
+  </si>
+  <si>
     <t>winner68</t>
   </si>
   <si>
@@ -888,6 +924,9 @@
     <t>副业收入超过主业！</t>
   </si>
   <si>
+    <t>物流仓储部#仓储管理组</t>
+  </si>
+  <si>
     <t>winner74</t>
   </si>
   <si>
@@ -951,6 +990,9 @@
     <t>赚钱如虎添翼，存钱如龙得水！</t>
   </si>
   <si>
+    <t>国际业务部#亚太区业务组</t>
+  </si>
+  <si>
     <t>winner81</t>
   </si>
   <si>
@@ -1005,6 +1047,9 @@
     <t>血压稳定，血糖正常！</t>
   </si>
   <si>
+    <t>国际业务部#欧美区业务组</t>
+  </si>
+  <si>
     <t>winner87</t>
   </si>
   <si>
@@ -1059,6 +1104,9 @@
     <t>跑步不喘，爬山不累！</t>
   </si>
   <si>
+    <t>国际业务部#非洲区业务组</t>
+  </si>
+  <si>
     <t>winner93</t>
   </si>
   <si>
@@ -1132,6 +1180,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -2128,22 +2181,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="31" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="24.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58" customHeight="1" spans="1:4">
+    <row r="1" ht="58" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2153,1477 +2207,1780 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="75" spans="1:4">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="75" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="str">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="3" ht="72.05" spans="1:4">
+    <row r="3" ht="72.05" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="str">
+      <c r="E3" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="4" ht="75" spans="1:4">
+    <row r="4" ht="75" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="5" ht="75" spans="1:4">
+    <row r="5" ht="75" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="6" ht="75" spans="1:4">
+    <row r="6" ht="75" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="7" ht="69.25" spans="1:4">
+    <row r="7" ht="69.25" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="E7" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="8" ht="75" spans="1:4">
+    <row r="8" ht="75" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="str">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="72.05" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="72.05" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="str">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="11" ht="72.05" spans="1:4">
+    <row r="11" ht="72.05" spans="1:5">
       <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="str">
+      <c r="E11" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="12" ht="72.05" spans="1:4">
+    <row r="12" ht="72.05" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="str">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" ht="72.05" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="72.05" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" ref="D14:D21" si="0">_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" ref="E14:E21" si="0">_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" ht="72.05" spans="1:4">
+    </row>
+    <row r="16" ht="72.05" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="str">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="17" ht="25.5" spans="1:3">
+    <row r="17" ht="25.5" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" ht="72.05" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="72.05" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" ht="72.05" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" ht="72.05" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="str">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="21" ht="75.15" spans="1:4">
+    <row r="21" ht="75.15" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="3" t="str">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</f>
         <v>=DISPIMG("ID_BD2EB5CD4C454A05852A4442A8581460",1)</v>
       </c>
     </row>
-    <row r="22" ht="75" spans="1:4">
+    <row r="22" ht="75" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="4" t="str">
+        <v>74</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="23" ht="72.05" spans="1:4">
+    <row r="23" ht="72.05" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="4" t="str">
+        <v>77</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="24" ht="75" spans="1:4">
+    <row r="24" ht="75" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="4" t="str">
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="25" ht="75" spans="1:4">
+    <row r="25" ht="75" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="4" t="str">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="26" ht="75" spans="1:4">
+    <row r="26" ht="75" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="E26" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="27" ht="69.25" spans="1:4">
+    <row r="27" ht="69.25" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="4" t="str">
+        <v>90</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="28" ht="75" spans="1:4">
+    <row r="28" ht="75" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="4" t="str">
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="29" ht="75" spans="1:4">
+    <row r="29" ht="75" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="4" t="str">
+        <v>97</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="30" ht="72.05" spans="1:4">
+    <row r="30" ht="72.05" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="4" t="str">
+        <v>100</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="31" ht="75" spans="1:4">
+    <row r="31" ht="75" spans="1:5">
       <c r="A31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="4" t="str">
+      <c r="E31" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="32" ht="75" spans="1:4">
+    <row r="32" ht="75" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="4" t="str">
+        <v>106</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="33" ht="75" spans="1:4">
+    <row r="33" ht="75" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="4" t="str">
+        <v>109</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="34" ht="69.25" spans="1:4">
+    <row r="34" ht="69.25" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="4" t="str">
+        <v>112</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="35" ht="75" spans="1:4">
+    <row r="35" ht="75" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="4" t="str">
+        <v>115</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="36" ht="75" spans="1:4">
+    <row r="36" ht="75" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="4" t="str">
+        <v>118</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="37" ht="72.05" spans="1:4">
+    <row r="37" ht="72.05" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="4" t="str">
+        <v>121</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="38" ht="75" spans="1:4">
+    <row r="38" ht="75" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="4" t="str">
+        <v>124</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="39" ht="75" spans="1:4">
+    <row r="39" ht="75" spans="1:5">
       <c r="A39" s="4" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="4" t="str">
+        <v>127</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="40" ht="75" spans="1:4">
+    <row r="40" ht="75" spans="1:5">
       <c r="A40" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="4" t="str">
+        <v>130</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="41" ht="69.25" spans="1:4">
+    <row r="41" ht="69.25" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="4" t="str">
+        <v>133</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="42" ht="75" spans="1:4">
+    <row r="42" ht="75" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="4" t="str">
+        <v>136</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="43" ht="75" spans="1:4">
+    <row r="43" ht="75" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="4" t="str">
+        <v>139</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="44" ht="72.05" spans="1:4">
+    <row r="44" ht="72.05" spans="1:5">
       <c r="A44" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="4" t="str">
+        <v>142</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="45" ht="75" spans="1:4">
+    <row r="45" ht="75" spans="1:5">
       <c r="A45" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="4" t="str">
+        <v>145</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="46" ht="75" spans="1:4">
+    <row r="46" ht="75" spans="1:5">
       <c r="A46" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="4" t="str">
+        <v>148</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="47" ht="75" spans="1:4">
+    <row r="47" ht="75" spans="1:5">
       <c r="A47" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="4" t="str">
+        <v>151</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="48" ht="69.25" spans="1:4">
+    <row r="48" ht="69.25" spans="1:5">
       <c r="A48" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="4" t="str">
+        <v>154</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="49" ht="75" spans="1:4">
+    <row r="49" ht="75" spans="1:5">
       <c r="A49" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="4" t="str">
+        <v>157</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="50" ht="75" spans="1:4">
+    <row r="50" ht="75" spans="1:5">
       <c r="A50" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="4" t="str">
+        <v>160</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="51" ht="72.05" spans="1:4">
+    <row r="51" ht="72.05" spans="1:5">
       <c r="A51" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="4" t="str">
+        <v>163</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="52" ht="75" spans="1:4">
+    <row r="52" ht="75" spans="1:5">
       <c r="A52" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" s="4" t="str">
+        <v>166</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="53" ht="75" spans="1:4">
+    <row r="53" ht="75" spans="1:5">
       <c r="A53" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="4" t="str">
+        <v>169</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="54" ht="75" spans="1:4">
+    <row r="54" ht="75" spans="1:5">
       <c r="A54" s="4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="4" t="str">
+        <v>172</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="55" ht="69.25" spans="1:4">
+    <row r="55" ht="69.25" spans="1:5">
       <c r="A55" s="4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="4" t="str">
+        <v>175</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="56" ht="75" spans="1:4">
+    <row r="56" ht="75" spans="1:5">
       <c r="A56" s="4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="4" t="str">
+        <v>178</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="57" ht="75" spans="1:4">
+    <row r="57" ht="75" spans="1:5">
       <c r="A57" s="4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="4" t="str">
+        <v>181</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="58" ht="72.05" spans="1:4">
+    <row r="58" ht="72.05" spans="1:5">
       <c r="A58" s="4" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="4" t="str">
+        <v>184</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="59" ht="75" spans="1:4">
+    <row r="59" ht="75" spans="1:5">
       <c r="A59" s="4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="4" t="str">
+        <v>187</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="60" ht="75" spans="1:4">
+    <row r="60" ht="75" spans="1:5">
       <c r="A60" s="4" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="4" t="str">
+        <v>190</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="61" ht="75" spans="1:4">
+    <row r="61" ht="75" spans="1:5">
       <c r="A61" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="4" t="str">
+        <v>194</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="62" ht="69.25" spans="1:4">
+    <row r="62" ht="69.25" spans="1:5">
       <c r="A62" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="4" t="str">
+        <v>197</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="63" ht="75" spans="1:4">
+    <row r="63" ht="75" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D63" s="4" t="str">
+        <v>200</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="64" ht="75" spans="1:4">
+    <row r="64" ht="75" spans="1:5">
       <c r="A64" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" s="4" t="str">
+      <c r="E64" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="65" ht="72.05" spans="1:4">
+    <row r="65" ht="72.05" spans="1:5">
       <c r="A65" s="4" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="4" t="str">
+        <v>206</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="66" ht="75" spans="1:4">
+    <row r="66" ht="75" spans="1:5">
       <c r="A66" s="4" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" s="4" t="str">
+        <v>209</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="67" ht="75" spans="1:4">
+    <row r="67" ht="75" spans="1:5">
       <c r="A67" s="4" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="4" t="str">
+        <v>212</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="68" ht="75" spans="1:4">
+    <row r="68" ht="75" spans="1:5">
       <c r="A68" s="4" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D68" s="4" t="str">
+        <v>215</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="69" ht="69.25" spans="1:4">
+    <row r="69" ht="69.25" spans="1:5">
       <c r="A69" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="4" t="str">
+        <v>219</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="70" ht="75" spans="1:4">
+    <row r="70" ht="75" spans="1:5">
       <c r="A70" s="4" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="4" t="str">
+        <v>222</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E70" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="4" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" ht="75" spans="1:4">
+        <v>225</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" ht="75" spans="1:5">
       <c r="A72" s="4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="4" t="str">
+      <c r="E72" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="73" ht="72.05" spans="1:4">
+    <row r="73" ht="72.05" spans="1:5">
       <c r="A73" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="4" t="str">
+        <v>231</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="74" ht="75" spans="1:4">
+    <row r="74" ht="75" spans="1:5">
       <c r="A74" s="4" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="4" t="str">
+        <v>234</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="75" ht="75" spans="1:4">
+    <row r="75" ht="75" spans="1:5">
       <c r="A75" s="4" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" s="4" t="str">
+        <v>238</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E75" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="76" ht="75" spans="1:4">
+    <row r="76" ht="75" spans="1:5">
       <c r="A76" s="4" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D76" s="4" t="str">
+        <v>241</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E76" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="77" ht="69.25" spans="1:4">
+    <row r="77" ht="69.25" spans="1:5">
       <c r="A77" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" s="4" t="str">
+        <v>244</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="78" ht="75" spans="1:4">
+    <row r="78" ht="75" spans="1:5">
       <c r="A78" s="4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D78" s="4" t="str">
+        <v>247</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" ht="75" spans="1:4">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" ht="75" spans="1:5">
       <c r="A80" s="4" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D80" s="4" t="str">
+        <v>253</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="81" ht="72.05" spans="1:4">
+    <row r="81" ht="72.05" spans="1:5">
       <c r="A81" s="4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D81" s="4" t="str">
+        <v>256</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E81" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="82" ht="75" spans="1:4">
+    <row r="82" ht="75" spans="1:5">
       <c r="A82" s="4" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" s="4" t="str">
+        <v>260</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="83" ht="75" spans="1:4">
+    <row r="83" ht="75" spans="1:5">
       <c r="A83" s="4" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D83" s="4" t="str">
+        <v>263</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E83" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="84" ht="75" spans="1:4">
+    <row r="84" ht="75" spans="1:5">
       <c r="A84" s="4" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D84" s="4" t="str">
+        <v>266</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="85" ht="69.25" spans="1:4">
+    <row r="85" ht="69.25" spans="1:5">
       <c r="A85" s="4" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D85" s="4" t="str">
+        <v>269</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="86" ht="75" spans="1:4">
+    <row r="86" ht="75" spans="1:5">
       <c r="A86" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D86" s="4" t="str">
+      <c r="E86" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" ht="75" spans="1:4">
+        <v>275</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" ht="75" spans="1:5">
       <c r="A88" s="4" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D88" s="4" t="str">
+        <v>279</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="89" ht="72.05" spans="1:4">
+    <row r="89" ht="72.05" spans="1:5">
       <c r="A89" s="4" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D89" s="4" t="str">
+        <v>282</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E89" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="90" ht="75" spans="1:4">
+    <row r="90" ht="75" spans="1:5">
       <c r="A90" s="4" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D90" s="4" t="str">
+        <v>285</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E90" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="91" ht="75" spans="1:4">
+    <row r="91" ht="75" spans="1:5">
       <c r="A91" s="4" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D91" s="4" t="str">
+        <v>288</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E91" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="92" ht="75" spans="1:4">
+    <row r="92" ht="75" spans="1:5">
       <c r="A92" s="4" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D92" s="4" t="str">
+      <c r="E92" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="93" ht="69.25" spans="1:4">
+    <row r="93" ht="69.25" spans="1:5">
       <c r="A93" s="4" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D93" s="4" t="str">
+        <v>294</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="94" ht="75" spans="1:4">
+    <row r="94" ht="75" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D94" s="4" t="str">
+        <v>298</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E94" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
     </row>
-    <row r="95" ht="75" spans="1:4">
+    <row r="95" ht="75" spans="1:5">
       <c r="A95" s="4" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="4" t="str">
+        <v>301</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</f>
         <v>=DISPIMG("ID_65508066611E4E7AAE922A38233C0BEB",1)</v>
       </c>
     </row>
-    <row r="96" ht="72.05" spans="1:4">
+    <row r="96" ht="72.05" spans="1:5">
       <c r="A96" s="4" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D96" s="4" t="str">
+        <v>304</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E96" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</f>
         <v>=DISPIMG("ID_58A17D82D96B452B848C984E78AED18A",1)</v>
       </c>
     </row>
-    <row r="97" ht="75" spans="1:4">
+    <row r="97" ht="75" spans="1:5">
       <c r="A97" s="4" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D97" s="4" t="str">
+        <v>307</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</f>
         <v>=DISPIMG("ID_6C4BA3F0323F45C7B9C679E7479CE105",1)</v>
       </c>
     </row>
-    <row r="98" ht="75" spans="1:4">
+    <row r="98" ht="75" spans="1:5">
       <c r="A98" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D98" s="4" t="str">
+        <v>310</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</f>
         <v>=DISPIMG("ID_1F6C8FF7934242518337677E270670A4",1)</v>
       </c>
     </row>
-    <row r="99" ht="75" spans="1:4">
+    <row r="99" ht="75" spans="1:5">
       <c r="A99" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D99" s="4" t="str">
+      <c r="E99" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</f>
         <v>=DISPIMG("ID_9BEFC58C0B54483091369FB9281BA597",1)</v>
       </c>
     </row>
-    <row r="100" ht="69.25" spans="1:4">
+    <row r="100" ht="69.25" spans="1:5">
       <c r="A100" s="4" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D100" s="4" t="str">
+        <v>316</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E100" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</f>
         <v>=DISPIMG("ID_B09503F40FFC4ADCB5B85D6F54CAF5F6",1)</v>
       </c>
     </row>
-    <row r="101" ht="75" spans="1:4">
+    <row r="101" ht="75" spans="1:5">
       <c r="A101" s="4" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D101" s="4" t="str">
+        <v>319</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E101" s="4" t="str">
         <f>_xlfn.DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</f>
         <v>=DISPIMG("ID_82A20384864448349F598286F7AC2E0D",1)</v>
       </c>
@@ -3640,7 +3997,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3648,7 +4005,7 @@
   <sheetData>
     <row r="1" ht="120" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
